--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,23 +8,203 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$BJ$1</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>string</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>Número Económico</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>No Serie</t>
+  </si>
+  <si>
+    <t>Ce Emplazamiento</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Kilometraje inicial </t>
+  </si>
+  <si>
+    <t>Kilometros recorridos en el período</t>
+  </si>
+  <si>
+    <t>Litros consumidos en el período</t>
+  </si>
+  <si>
+    <t>Eventos de calentamiento (&gt;105°C)</t>
+  </si>
+  <si>
+    <t>Máxima Temp reportada [°C]</t>
+  </si>
+  <si>
+    <t>Máxima duración de evento [hh:mm:ss]</t>
+  </si>
+  <si>
+    <t>Operación debajo de temperatura mínima recomendada [hh:mm:ss]</t>
+  </si>
+  <si>
+    <t>Máxima duración de evento debajo de temperatura mínima de operación [min]</t>
+  </si>
+  <si>
+    <t>Temperatura promedio de operación</t>
+  </si>
+  <si>
+    <t>Rendimiento calculado mínimo [km/L]</t>
+  </si>
+  <si>
+    <t>Rendimiento calculado total [km/L]</t>
+  </si>
+  <si>
+    <t>Rendimiento calculado máximo [km/L]</t>
+  </si>
+  <si>
+    <t>Total de eventos de combustible</t>
+  </si>
+  <si>
+    <t>Sumatoria de litros para eventos de combustible</t>
+  </si>
+  <si>
+    <t>Total de eventos de códigos de falla</t>
+  </si>
+  <si>
+    <t>Total de códigos de falla activos</t>
+  </si>
+  <si>
+    <t>Código activo de mayor incidencia</t>
+  </si>
+  <si>
+    <t>Total de códigos de falla inactivos</t>
+  </si>
+  <si>
+    <t>Código inactivo de mayor incidencia</t>
+  </si>
+  <si>
+    <t>Cantidad de eventos de sobre revolución</t>
+  </si>
+  <si>
+    <t>Duración total de los eventos de sobre revolución</t>
+  </si>
+  <si>
+    <t>Máximas RPM´s registradas</t>
+  </si>
+  <si>
+    <t>Cantidad de eventos Ralentí &gt;5 min</t>
+  </si>
+  <si>
+    <t>Tiempo en ralentí (excedentes a 5min/evento) [min]</t>
+  </si>
+  <si>
+    <t>Tiempo total de ralentí [min]</t>
+  </si>
+  <si>
+    <t>Tiempo Ralenti UO</t>
+  </si>
+  <si>
+    <t>Tiempo Ralenti Fuera UO</t>
+  </si>
+  <si>
+    <t>Máximo tiempo en ralentí (1 solo evento)</t>
+  </si>
+  <si>
+    <t>Tiempo en ralenti vs Tiempo de Operación [%]</t>
+  </si>
+  <si>
+    <t>Tiempo de Manejo</t>
+  </si>
+  <si>
+    <t>Tiempo de Operación</t>
+  </si>
+  <si>
+    <t>Litros de combustible consumidos en Ralentí [L]</t>
+  </si>
+  <si>
+    <t>Cantidad de eventos acelerador &gt; 90%</t>
+  </si>
+  <si>
+    <t>Duración de los eventos [min]</t>
+  </si>
+  <si>
+    <t>Eventos de Velocidad</t>
+  </si>
+  <si>
+    <t>Maximum Speed</t>
+  </si>
+  <si>
+    <t>Estimación de CO2 generado [kg]</t>
+  </si>
+  <si>
+    <t>Estimación de CO2 generado [kg/km]</t>
+  </si>
+  <si>
+    <t>Calificación Conducción</t>
+  </si>
+  <si>
+    <t>Kilometraje final [km]</t>
+  </si>
+  <si>
+    <t>Consumo total acumulado inicial [L]</t>
+  </si>
+  <si>
+    <t>Consumo total acumulado final [L]</t>
+  </si>
+  <si>
+    <t>Cantidad eventos Frenada de pánico [&lt; -0.5 G]</t>
+  </si>
+  <si>
+    <t>Máxima G registrada</t>
+  </si>
+  <si>
+    <t>Cantidad eventos Giro brusco</t>
+  </si>
+  <si>
+    <t>Máxima G registrada izquierda</t>
+  </si>
+  <si>
+    <t>Máxima G registrada derecha</t>
+  </si>
+  <si>
+    <t>Cantidad eventos Aceleración Brusca </t>
+  </si>
+  <si>
+    <t>Entradas a Taller (eventos)</t>
+  </si>
+  <si>
+    <t>Duración en taller (total)</t>
+  </si>
+  <si>
+    <t>Comunicando</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -32,27 +212,138 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92C5FC"/>
+        <bgColor rgb="FF92C5FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3E4E5"/>
+        <bgColor rgb="FFE3E4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5B5B5"/>
+        <bgColor rgb="FFB5B5B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB6C1"/>
+        <bgColor rgb="FFFFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FF98"/>
+        <bgColor rgb="FF98FF98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0080"/>
+        <bgColor rgb="FFFF0080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCA9DD"/>
+        <bgColor rgb="FFCCA9DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B83BD"/>
+        <bgColor rgb="FF3B83BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70FF8B"/>
+        <bgColor rgb="FF70FF8B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6571AC"/>
+        <bgColor rgb="FF6571AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D0C2E"/>
+        <bgColor rgb="FF6D0C2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B9B9B"/>
+        <bgColor rgb="FF9B9B9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3B1D2"/>
+        <bgColor rgb="FFE3B1D2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,45 +351,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="3" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="4" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="5" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="6" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="7" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="8" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="9" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="10" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="11" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="12" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="13" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="14" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="3" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="15" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="16" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="17" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="18" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="9" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" justifyLastLine="1" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:BJ1"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane xSplit="6" topLeftCell="G1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="23" max="23" width="20" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="25" max="25" width="20" customWidth="1"/>
+    <col min="26" max="26" width="20" customWidth="1"/>
+    <col min="27" max="27" width="20" customWidth="1"/>
+    <col min="28" max="28" width="20" customWidth="1"/>
+    <col min="29" max="29" width="20" customWidth="1"/>
+    <col min="30" max="30" width="20" customWidth="1"/>
+    <col min="31" max="31" width="20" customWidth="1"/>
+    <col min="32" max="32" width="20" customWidth="1"/>
+    <col min="33" max="33" width="20" customWidth="1"/>
+    <col min="34" max="34" width="20" customWidth="1"/>
+    <col min="35" max="35" width="20" customWidth="1"/>
+    <col min="36" max="36" width="20" customWidth="1"/>
+    <col min="37" max="37" width="20" customWidth="1"/>
+    <col min="38" max="38" width="20" customWidth="1"/>
+    <col min="39" max="39" width="20" customWidth="1"/>
+    <col min="40" max="40" width="20" customWidth="1"/>
+    <col min="41" max="41" width="20" customWidth="1"/>
+    <col min="42" max="42" width="20" customWidth="1"/>
+    <col min="43" max="43" width="20" customWidth="1"/>
+    <col min="44" max="44" width="20" customWidth="1"/>
+    <col min="45" max="45" width="20" customWidth="1"/>
+    <col min="46" max="46" width="20" customWidth="1"/>
+    <col min="47" max="47" width="20" customWidth="1"/>
+    <col min="48" max="48" width="20" customWidth="1"/>
+    <col min="49" max="49" width="20" customWidth="1"/>
+    <col min="50" max="50" width="20" customWidth="1"/>
+    <col min="51" max="51" width="20" customWidth="1"/>
+    <col min="52" max="52" width="20" customWidth="1"/>
+    <col min="53" max="53" width="20" customWidth="1"/>
+    <col min="54" max="54" width="20" customWidth="1"/>
+    <col min="55" max="55" width="20" customWidth="1"/>
+    <col min="56" max="56" width="20" customWidth="1"/>
+    <col min="57" max="57" width="20" customWidth="1"/>
+    <col min="58" max="58" width="20" customWidth="1"/>
+    <col min="59" max="59" width="20" customWidth="1"/>
+    <col min="60" max="60" width="20" customWidth="1"/>
+    <col min="61" max="61" width="20" customWidth="1"/>
+    <col min="62" max="62" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1">
-        <f>A1 + B1</f>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:62" ht="45" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="b">
-        <v>true</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BJ1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
